--- a/07-16-eBiz .xlsx
+++ b/07-16-eBiz .xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <r>
       <t>Date
@@ -421,9 +421,6 @@
     <t>upromise 5%</t>
   </si>
   <si>
-    <t>05-05-2016</t>
-  </si>
-  <si>
     <t>Asus-Transformer-Book-11-6-2In1-Touch-Laptop-Intel-Atom-Z3775-2GB-RAM-64GB-</t>
   </si>
   <si>
@@ -479,8 +476,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -564,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="484">
+  <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1049,8 +1047,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1106,8 +1105,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="484">
+  <cellStyles count="485">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1391,6 +1391,7 @@
     <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1928,7 +1929,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="2" sqref="A10:XFD10 A9:XFD9 A11:XFD11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -2016,11 +2017,11 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="27">
+        <v>42495</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2058,13 +2059,13 @@
         <v>33.5</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P2" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>22</v>
@@ -2076,15 +2077,15 @@
         <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="15">
+      <c r="A3" s="27">
         <v>42577</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2122,13 +2123,13 @@
         <v>11.2</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="18" t="s">
@@ -2140,11 +2141,11 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="15">
+      <c r="A4" s="27">
         <v>42579</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2182,13 +2183,13 @@
         <v>98.2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="18" t="s">
@@ -2196,15 +2197,15 @@
       </c>
       <c r="S4" s="24"/>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15">
+      <c r="A5" s="27">
         <v>42585</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2242,31 +2243,31 @@
         <v>78.900000000000006</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="T5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="15">
+      <c r="A6" s="27">
         <v>42590</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2307,13 +2308,13 @@
         <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="R6" s="18" t="s">
         <v>20</v>
@@ -2322,15 +2323,15 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="15">
+      <c r="A7" s="27">
         <v>42598</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2371,14 +2372,14 @@
         <v>16</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" s="24"/>
       <c r="T7" t="s">
@@ -2386,11 +2387,11 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="15">
+      <c r="A8" s="27">
         <v>42604</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2431,19 +2432,19 @@
         <v>16</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:20">
